--- a/data/trans_dic/PCS12_SP_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3505522664011004</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3330696223070567</v>
+        <v>0.3330696223070566</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2028604815242384</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1251078778841001</v>
+        <v>0.1249003874008831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1661855353824618</v>
+        <v>0.1635571034602578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1590405688171278</v>
+        <v>0.1607638526289652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1752448813687373</v>
+        <v>0.1742641196671124</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1862538667937534</v>
+        <v>0.1931712106172166</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2902574540266352</v>
+        <v>0.2937566267669352</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2929697299353827</v>
+        <v>0.2986381751656997</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.291828410703981</v>
+        <v>0.2924340861954497</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.16764262668424</v>
+        <v>0.167878686289917</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.242906333616762</v>
+        <v>0.239745040748911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2408046160440165</v>
+        <v>0.2394522463409435</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2463622623160884</v>
+        <v>0.2438510462918051</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2167170000950299</v>
+        <v>0.2142015949716011</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2651473837143549</v>
+        <v>0.266936906254459</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2561278871491983</v>
+        <v>0.2579704543901041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2600835430810758</v>
+        <v>0.2622808167912226</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2921731037198291</v>
+        <v>0.2996556392787953</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4141079259642885</v>
+        <v>0.413607774933064</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4072086927492643</v>
+        <v>0.4128370841287321</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3736074535640795</v>
+        <v>0.3786678115285612</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2418257797199808</v>
+        <v>0.2380398733573643</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3191943053340548</v>
+        <v>0.3203688740609654</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3227976744888915</v>
+        <v>0.3173277959325665</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3041804775818484</v>
+        <v>0.3050270465618847</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1288310635209288</v>
+        <v>0.12545391691269</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1197216467630049</v>
+        <v>0.1215321313027301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1071237249700322</v>
+        <v>0.1060760618216193</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1872942646171512</v>
+        <v>0.1867885783883245</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2674502158540982</v>
+        <v>0.2705833284064851</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2455668936689891</v>
+        <v>0.2483015555878743</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1874818268094549</v>
+        <v>0.1829879418677528</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2620796688637411</v>
+        <v>0.2678688899641089</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2092393217565651</v>
+        <v>0.2073254730547611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1938549985168886</v>
+        <v>0.1944458713272188</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1554146578570292</v>
+        <v>0.1570378857162168</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2383533235223416</v>
+        <v>0.2364024454295874</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1961360111426256</v>
+        <v>0.1921846444183571</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1876845016801882</v>
+        <v>0.1945172215695743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1678735054861145</v>
+        <v>0.1647766305773581</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2685663906188291</v>
+        <v>0.2696858767719076</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3494540535926245</v>
+        <v>0.3514348960820285</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3308184695793508</v>
+        <v>0.3247480892879165</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.264602535491752</v>
+        <v>0.2622870787715518</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3352626905938204</v>
+        <v>0.3359426217676746</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2610856557127664</v>
+        <v>0.2612599932241247</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2471592899114883</v>
+        <v>0.247402500743053</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2067264524513178</v>
+        <v>0.2056727627748109</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2897228787406548</v>
+        <v>0.290965049277575</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1941693880833276</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3064506235977451</v>
+        <v>0.3064506235977452</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2089466703362423</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09745635295053161</v>
+        <v>0.09441349375268254</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1230116854059646</v>
+        <v>0.1197755018670453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1027006639798573</v>
+        <v>0.1059511874795375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2173668795490646</v>
+        <v>0.2152470835521465</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.234284651439969</v>
+        <v>0.2414569848639448</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2128913707420343</v>
+        <v>0.2069634340635331</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1509867455114612</v>
+        <v>0.154434536222469</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.267110151306316</v>
+        <v>0.2686738598907564</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.179126199843096</v>
+        <v>0.181146015236212</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1760214011686063</v>
+        <v>0.1786109122880446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1396325613037813</v>
+        <v>0.1396758825992977</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2551838716358022</v>
+        <v>0.2533802217851689</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.173655777474744</v>
+        <v>0.1717800120650662</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2040192544850429</v>
+        <v>0.2038386611379988</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1791389016154344</v>
+        <v>0.1768638341311243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3034387780003512</v>
+        <v>0.3067125259424789</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3319569393675581</v>
+        <v>0.3323346885183127</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3037750067173062</v>
+        <v>0.3067897262799774</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2422036592834399</v>
+        <v>0.2441582926755869</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3402958257683616</v>
+        <v>0.3499367413770139</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2433309426530566</v>
+        <v>0.2392017751634224</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2400957518474318</v>
+        <v>0.2427587426445041</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1996399175315569</v>
+        <v>0.1981657320070897</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3135433892618247</v>
+        <v>0.3124756176072741</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1096164027550601</v>
+        <v>0.1082166363840065</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1742060737851182</v>
+        <v>0.17882401789019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1861212785209402</v>
+        <v>0.1878111167691745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1997926252844364</v>
+        <v>0.1903898724716325</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2306757108929104</v>
+        <v>0.2312980951543311</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3215388471017669</v>
+        <v>0.3227161558805819</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3200666399244463</v>
+        <v>0.3249672307228164</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3004340471434842</v>
+        <v>0.3017130159690847</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1806988940691044</v>
+        <v>0.1829935880929974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2638132975311732</v>
+        <v>0.2653493039409044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2670311830681465</v>
+        <v>0.2691008883071359</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2639394536829293</v>
+        <v>0.2622407194010511</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1778987946667117</v>
+        <v>0.1822437727094844</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2640092027411694</v>
+        <v>0.2640581999862037</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2784920604951118</v>
+        <v>0.2790254208888506</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3018249998079717</v>
+        <v>0.3010278825963959</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3229957486411037</v>
+        <v>0.3206453329911725</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4222315805318494</v>
+        <v>0.4253225848895433</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4221003159999356</v>
+        <v>0.4284496544257925</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3886301715498788</v>
+        <v>0.38612893748975</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2406460229525673</v>
+        <v>0.2431260361771546</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.332825153048056</v>
+        <v>0.3297275583773923</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3360661256188917</v>
+        <v>0.3377604309616755</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3336760335702783</v>
+        <v>0.3305252335241242</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0923337165705773</v>
+        <v>0.09303365604880107</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1731373808871995</v>
+        <v>0.1679306368920693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09961288987807712</v>
+        <v>0.09955280607984528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1090194684370429</v>
+        <v>0.1103420025984257</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.161543684806994</v>
+        <v>0.1592778342843637</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3155531897554353</v>
+        <v>0.3167302467197605</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1732548988554548</v>
+        <v>0.1791221078433206</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1995524247283948</v>
+        <v>0.2012027788300658</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1404335553043679</v>
+        <v>0.14323652822457</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2622893569166683</v>
+        <v>0.2597181534336377</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.15414810265216</v>
+        <v>0.1563669895206137</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1687238591119322</v>
+        <v>0.1693485666431052</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1843954433957496</v>
+        <v>0.1854425319218453</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2969662410318684</v>
+        <v>0.2880421848222249</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1966120393333602</v>
+        <v>0.1979647372660864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1891199348023971</v>
+        <v>0.1921895056371486</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2792441600777009</v>
+        <v>0.2777334378953552</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4563925209293159</v>
+        <v>0.4558128021161663</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2899329070893065</v>
+        <v>0.290220896322664</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2745115708883148</v>
+        <v>0.2768561905007767</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2157590521902355</v>
+        <v>0.2172298732675287</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3515367017983874</v>
+        <v>0.353066287485937</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2263112784736876</v>
+        <v>0.2335509155903639</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2231766689723278</v>
+        <v>0.2242526155856403</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3074084409544465</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3801893628833199</v>
+        <v>0.3801893628833197</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2421859798383763</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.129507424529441</v>
+        <v>0.1265305089627432</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1694171306066063</v>
+        <v>0.1796168014730374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1828059092314691</v>
+        <v>0.187358147697172</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2347400395904089</v>
+        <v>0.2379358351564794</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2615551603658627</v>
+        <v>0.2543888870194175</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2434177100508339</v>
+        <v>0.24624905517042</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2543138917416161</v>
+        <v>0.2500179580494964</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3366336849555803</v>
+        <v>0.3365942463089996</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2050175854376459</v>
+        <v>0.2080659532088457</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2220001844570808</v>
+        <v>0.2230348058781818</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2338789652707808</v>
+        <v>0.2348848484630148</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2972656846055038</v>
+        <v>0.294504200168946</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2217944077835644</v>
+        <v>0.2210482938453101</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2743197806806889</v>
+        <v>0.2756745672744626</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2894166802565867</v>
+        <v>0.293543632592481</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3289856972537897</v>
+        <v>0.3256803020510275</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3697433309836308</v>
+        <v>0.3699159724806733</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3501178937329357</v>
+        <v>0.3548517019818151</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3714280753875086</v>
+        <v>0.3727059360375038</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4253140857799277</v>
+        <v>0.4285908549899975</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2783859438057479</v>
+        <v>0.2774367577051962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2967250149659915</v>
+        <v>0.2947081989885528</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3143902521373841</v>
+        <v>0.3141463800910803</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3597319339230916</v>
+        <v>0.3623285110040851</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1305708099043191</v>
+        <v>0.1298813160094474</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1214105489258915</v>
+        <v>0.1227774839570396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1557007243577887</v>
+        <v>0.1535962271237861</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1757545981662963</v>
+        <v>0.1784969115185636</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2216412516559819</v>
+        <v>0.2228873232444157</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2365224968641326</v>
+        <v>0.2285504355237676</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2275909085495427</v>
+        <v>0.2295120449149522</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2794232561388751</v>
+        <v>0.2803197216990308</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1843891482585825</v>
+        <v>0.1842446279137021</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1886277799819876</v>
+        <v>0.188295839124435</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2023964990628312</v>
+        <v>0.2011253014736835</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2381959497863626</v>
+        <v>0.2395842925376206</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1862464562356403</v>
+        <v>0.1900689813871473</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1793885005152261</v>
+        <v>0.1804660973461828</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2173785233260968</v>
+        <v>0.216614368004889</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2425422503270582</v>
+        <v>0.2415548560862946</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.289636669196711</v>
+        <v>0.2936246848208891</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.306229230593586</v>
+        <v>0.3022693789795556</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2983183270601181</v>
+        <v>0.2975234856022829</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3386016488174842</v>
+        <v>0.3391278882257933</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2306577211518798</v>
+        <v>0.2286264867931563</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.233402005177055</v>
+        <v>0.235626007452014</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2488896292164594</v>
+        <v>0.246777253731594</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.282481658229031</v>
+        <v>0.2841504196046636</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.224183689838351</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2615020961048527</v>
+        <v>0.2615020961048528</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2229233615192116</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1489050381538784</v>
+        <v>0.1503937782415513</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1442935294928098</v>
+        <v>0.1447097934605101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1023804589585918</v>
+        <v>0.100142815323491</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1369970305628393</v>
+        <v>0.140609872785256</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2351239809532711</v>
+        <v>0.2379945057553013</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2164685815056498</v>
+        <v>0.2141429446799364</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1930152039325927</v>
+        <v>0.1951006148544956</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2358521651043748</v>
+        <v>0.2364510816834079</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2024466037060957</v>
+        <v>0.2012236324216287</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1882566169050296</v>
+        <v>0.1869869859322315</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1543165640620006</v>
+        <v>0.1556073737944495</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1953360409378775</v>
+        <v>0.1954939312796868</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2043814834217479</v>
+        <v>0.2044119379371345</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1991701052346708</v>
+        <v>0.2013100043566536</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1492593334382016</v>
+        <v>0.1479635059926735</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.18785354588172</v>
+        <v>0.1898407839618096</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3004985577447162</v>
+        <v>0.3033551463520212</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2808800742227037</v>
+        <v>0.2797444217491906</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2559946810217548</v>
+        <v>0.2573862012860971</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2855872069001454</v>
+        <v>0.2885850138816973</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2451447648090286</v>
+        <v>0.2463140858166701</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2289365112645867</v>
+        <v>0.2322030109872762</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1943316676930422</v>
+        <v>0.1939328490798999</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2318894953436866</v>
+        <v>0.2327635576415918</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.14551860692494</v>
+        <v>0.1449027459305638</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1654509730096534</v>
+        <v>0.1654130903929628</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1544024319498621</v>
+        <v>0.1542445487510044</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1990318071176179</v>
+        <v>0.1967285362591533</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2571933473444453</v>
+        <v>0.2573566118516696</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2765191303811136</v>
+        <v>0.2744258855450559</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2468770966135048</v>
+        <v>0.2451047123067584</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2894554468143383</v>
+        <v>0.2913950628832184</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2062426678123697</v>
+        <v>0.2058033824492898</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2262508016619111</v>
+        <v>0.2255210754517412</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2050138658982271</v>
+        <v>0.2054304182217138</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2500471021111381</v>
+        <v>0.2490728787982831</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1711110876187533</v>
+        <v>0.170920721330434</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.193158831063228</v>
+        <v>0.1923500774824448</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1796943019349646</v>
+        <v>0.1798218473448686</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2252175043496672</v>
+        <v>0.2240401249399002</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2871450819736884</v>
+        <v>0.2872776276898303</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3093040485501006</v>
+        <v>0.3072859052383654</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2769123722900101</v>
+        <v>0.2772737755479987</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3148996357325343</v>
+        <v>0.3174012607880579</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2268179905756705</v>
+        <v>0.2257335608490749</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2470938181796452</v>
+        <v>0.2464991596612895</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.225768547184199</v>
+        <v>0.2248827002589991</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2681461463154242</v>
+        <v>0.2684629070603896</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34156</v>
+        <v>34099</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48981</v>
+        <v>48206</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>46720</v>
+        <v>47226</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>55876</v>
+        <v>55563</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>48582</v>
+        <v>50386</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>83375</v>
+        <v>84380</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>84581</v>
+        <v>86218</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>92236</v>
+        <v>92427</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>89496</v>
+        <v>89622</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>141367</v>
+        <v>139528</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>140260</v>
+        <v>139472</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>156417</v>
+        <v>154822</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>59166</v>
+        <v>58479</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>78149</v>
+        <v>78676</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75240</v>
+        <v>75782</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>82926</v>
+        <v>83627</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>76210</v>
+        <v>78162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>118950</v>
+        <v>118807</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>117562</v>
+        <v>119187</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>118083</v>
+        <v>119682</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>129098</v>
+        <v>127077</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>185766</v>
+        <v>186449</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>188018</v>
+        <v>184832</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>193126</v>
+        <v>193664</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>63523</v>
+        <v>61858</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60523</v>
+        <v>61438</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>53838</v>
+        <v>53311</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>99202</v>
+        <v>98934</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>134781</v>
+        <v>136360</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>128619</v>
+        <v>130052</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>98069</v>
+        <v>95718</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>142842</v>
+        <v>145997</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>208617</v>
+        <v>206708</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>199533</v>
+        <v>200142</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>159402</v>
+        <v>161067</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>256156</v>
+        <v>254059</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>96710</v>
+        <v>94761</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>94880</v>
+        <v>98334</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>84369</v>
+        <v>82813</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>142248</v>
+        <v>142841</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>176107</v>
+        <v>177105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>173271</v>
+        <v>170092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>138409</v>
+        <v>137198</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>182729</v>
+        <v>183099</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>260309</v>
+        <v>260482</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>254399</v>
+        <v>254649</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>212031</v>
+        <v>210950</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>311362</v>
+        <v>312697</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31074</v>
+        <v>30103</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39861</v>
+        <v>38813</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32717</v>
+        <v>33752</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68269</v>
+        <v>67603</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>78582</v>
+        <v>80988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>72600</v>
+        <v>70579</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>50778</v>
+        <v>51938</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>93867</v>
+        <v>94417</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>117195</v>
+        <v>118516</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>117066</v>
+        <v>118788</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>91442</v>
+        <v>91470</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>169822</v>
+        <v>168622</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>55369</v>
+        <v>54771</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66112</v>
+        <v>66053</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>57067</v>
+        <v>56343</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>95301</v>
+        <v>96330</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>111342</v>
+        <v>111469</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>103593</v>
+        <v>104621</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>81455</v>
+        <v>82113</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>119586</v>
+        <v>122974</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>159201</v>
+        <v>156500</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>159680</v>
+        <v>161451</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>130739</v>
+        <v>129774</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>208660</v>
+        <v>207949</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>39316</v>
+        <v>38814</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>65150</v>
+        <v>66877</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>68858</v>
+        <v>69483</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>73152</v>
+        <v>69710</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>85686</v>
+        <v>85917</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>125063</v>
+        <v>125521</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>123956</v>
+        <v>125854</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>125106</v>
+        <v>125638</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>131933</v>
+        <v>133609</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>201272</v>
+        <v>202444</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>202209</v>
+        <v>203776</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>206548</v>
+        <v>205218</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63807</v>
+        <v>65366</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98735</v>
+        <v>98753</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>103032</v>
+        <v>103229</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>110511</v>
+        <v>110219</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>119979</v>
+        <v>119106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>164227</v>
+        <v>165430</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>163472</v>
+        <v>165931</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>161832</v>
+        <v>160790</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>175702</v>
+        <v>177513</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>253923</v>
+        <v>251560</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>254485</v>
+        <v>255768</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>261121</v>
+        <v>258655</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>18772</v>
+        <v>18914</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>36812</v>
+        <v>35705</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21040</v>
+        <v>21028</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>22368</v>
+        <v>22639</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33547</v>
+        <v>33077</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>69293</v>
+        <v>69551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>37871</v>
+        <v>39154</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>44927</v>
+        <v>45298</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>57715</v>
+        <v>58867</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>113364</v>
+        <v>112253</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>66254</v>
+        <v>67208</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>72603</v>
+        <v>72872</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37489</v>
+        <v>37702</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>63140</v>
+        <v>61243</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41529</v>
+        <v>41814</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38802</v>
+        <v>39432</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>57990</v>
+        <v>57676</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>100220</v>
+        <v>100092</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>63376</v>
+        <v>63439</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61803</v>
+        <v>62331</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>88672</v>
+        <v>89276</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>151937</v>
+        <v>152598</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>97270</v>
+        <v>100382</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>96035</v>
+        <v>96498</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>35072</v>
+        <v>34266</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>46417</v>
+        <v>49212</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>48100</v>
+        <v>49298</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>63434</v>
+        <v>64297</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>72750</v>
+        <v>70757</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>68165</v>
+        <v>68957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>69457</v>
+        <v>68284</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>88787</v>
+        <v>88777</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>112545</v>
+        <v>114219</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>122991</v>
+        <v>123564</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>125415</v>
+        <v>125954</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>158734</v>
+        <v>157259</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>60064</v>
+        <v>59862</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>75158</v>
+        <v>75530</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>76152</v>
+        <v>77238</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>88902</v>
+        <v>88009</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>102842</v>
+        <v>102890</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>98044</v>
+        <v>99369</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>101443</v>
+        <v>101792</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>112177</v>
+        <v>113041</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>152821</v>
+        <v>152300</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>164389</v>
+        <v>163272</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>168588</v>
+        <v>168457</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>192090</v>
+        <v>193476</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>80305</v>
+        <v>79881</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>80469</v>
+        <v>81375</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>102227</v>
+        <v>100845</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>125598</v>
+        <v>127557</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>141456</v>
+        <v>142251</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>164112</v>
+        <v>158580</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>157332</v>
+        <v>158660</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>214978</v>
+        <v>215667</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>231085</v>
+        <v>230904</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>255900</v>
+        <v>255450</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>272801</v>
+        <v>271087</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>353479</v>
+        <v>355539</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>114547</v>
+        <v>116898</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>118897</v>
+        <v>119611</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>142722</v>
+        <v>142220</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>173326</v>
+        <v>172620</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>184852</v>
+        <v>187397</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>212478</v>
+        <v>209731</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>206226</v>
+        <v>205676</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>260507</v>
+        <v>260912</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>289071</v>
+        <v>286525</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>316643</v>
+        <v>319660</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>335466</v>
+        <v>332619</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>419198</v>
+        <v>421674</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>110755</v>
+        <v>111862</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>112419</v>
+        <v>112743</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>79712</v>
+        <v>77969</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>109100</v>
+        <v>111977</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>184222</v>
+        <v>186471</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>178338</v>
+        <v>176422</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>159463</v>
+        <v>161186</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>195392</v>
+        <v>195888</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>309198</v>
+        <v>307330</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>301766</v>
+        <v>299731</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>247640</v>
+        <v>249711</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>317385</v>
+        <v>317642</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>152018</v>
+        <v>152041</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>155173</v>
+        <v>156840</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>116211</v>
+        <v>115202</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>149600</v>
+        <v>151183</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>235444</v>
+        <v>237682</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>231404</v>
+        <v>230468</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>211494</v>
+        <v>212644</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>236595</v>
+        <v>239079</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>374411</v>
+        <v>376197</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>366974</v>
+        <v>372210</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>311854</v>
+        <v>311214</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>376778</v>
+        <v>378198</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>476798</v>
+        <v>474780</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>566964</v>
+        <v>566834</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>524096</v>
+        <v>523560</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>699617</v>
+        <v>691521</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>869107</v>
+        <v>869659</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>983941</v>
+        <v>976492</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>875066</v>
+        <v>868784</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1075508</v>
+        <v>1082715</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1372698</v>
+        <v>1369774</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1580382</v>
+        <v>1575285</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1422569</v>
+        <v>1425459</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1808023</v>
+        <v>1800979</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>560653</v>
+        <v>560029</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>661913</v>
+        <v>659141</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>609945</v>
+        <v>610378</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>791663</v>
+        <v>787524</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>970320</v>
+        <v>970768</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1100599</v>
+        <v>1093418</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>981528</v>
+        <v>982809</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1170050</v>
+        <v>1179345</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1509642</v>
+        <v>1502424</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1725972</v>
+        <v>1721818</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1566584</v>
+        <v>1560437</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1938892</v>
+        <v>1941183</v>
       </c>
     </row>
     <row r="40">
